--- a/fileop/ScoresSheet2.xlsx
+++ b/fileop/ScoresSheet2.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
-  </bookViews>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,30 +41,88 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -219,20 +266,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -354,51 +397,223 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>学号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>作业-30%</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>期中机考-10%</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>实验-20%</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>期末机考-40%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>总分</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>82.59999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>